--- a/data/dummy_master_file.xlsx
+++ b/data/dummy_master_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/krzysztof_bogusz_gds_ey_com/Documents/Desktop/Project/AGI/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{7EB9195C-88E0-4372-B8C0-A356DFDD5265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DDBA59-7BFF-4391-A109-A76DE9E09588}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{7EB9195C-88E0-4372-B8C0-A356DFDD5265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E3BB15-84BA-41B4-B348-8129D08FA79C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{0C7D8E43-F1EA-4A44-9580-FB328942F11D}"/>
   </bookViews>
@@ -37,18 +37,6 @@
     <t>Employee Identifier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Capacity Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employee Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Department</t>
-  </si>
-  <si>
     <t>Anna</t>
   </si>
   <si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>RPA</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Capacity Hours</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,16 +942,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,10 +999,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
